--- a/MojaveInsectDiversity/Data/Specimens.xlsx
+++ b/MojaveInsectDiversity/Data/Specimens.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\School\Chapter 2\MojaveInsectDiversity\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\School\Chapter 2\larrea.facilitation\MojaveInsectDiversity\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -13,9 +13,10 @@
   </bookViews>
   <sheets>
     <sheet name="Pan Trap Specimens" sheetId="1" r:id="rId1"/>
-    <sheet name="removed, need to verify" sheetId="4" r:id="rId2"/>
-    <sheet name="Ethanol Specimens" sheetId="3" r:id="rId3"/>
-    <sheet name="In-situ Collected Specimens" sheetId="2" r:id="rId4"/>
+    <sheet name="Unknowns" sheetId="5" r:id="rId2"/>
+    <sheet name="removed, need to verify" sheetId="4" r:id="rId3"/>
+    <sheet name="Ethanol Specimens" sheetId="3" r:id="rId4"/>
+    <sheet name="In-situ Collected Specimens" sheetId="2" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20786" uniqueCount="1017">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20828" uniqueCount="1039">
   <si>
     <t>InsectID</t>
   </si>
@@ -2888,15 +2889,9 @@
     <t>Ichneumonidae</t>
   </si>
   <si>
-    <t>Aphelididae?</t>
-  </si>
-  <si>
     <t>in 184 open</t>
   </si>
   <si>
-    <t>same species as 192 sep</t>
-  </si>
-  <si>
     <t>Opomyzidae or Drosphilidae</t>
   </si>
   <si>
@@ -2936,18 +2931,12 @@
     <t>Eurytomidae?</t>
   </si>
   <si>
-    <t>same as 192 4.10</t>
-  </si>
-  <si>
     <t>Burprestidae?</t>
   </si>
   <si>
     <t>2 lines on scutellum</t>
   </si>
   <si>
-    <t>red metallic head</t>
-  </si>
-  <si>
     <t>Malachiinae</t>
   </si>
   <si>
@@ -3044,9 +3033,6 @@
     <t>wingless</t>
   </si>
   <si>
-    <t>same as 192</t>
-  </si>
-  <si>
     <t>2 submarginal cells</t>
   </si>
   <si>
@@ -3078,6 +3064,87 @@
   </si>
   <si>
     <t>Eumeninae</t>
+  </si>
+  <si>
+    <t>Milichiidae</t>
+  </si>
+  <si>
+    <t>Rep</t>
+  </si>
+  <si>
+    <t>182 Open</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>192 Open</t>
+  </si>
+  <si>
+    <t>266 Shrub</t>
+  </si>
+  <si>
+    <t>196 Open</t>
+  </si>
+  <si>
+    <t>289 Open</t>
+  </si>
+  <si>
+    <t>289 Shrub</t>
+  </si>
+  <si>
+    <t>190 Open</t>
+  </si>
+  <si>
+    <t>190 Shrub</t>
+  </si>
+  <si>
+    <t>284 Shrub</t>
+  </si>
+  <si>
+    <t>269 Shrub</t>
+  </si>
+  <si>
+    <t>195 Shrub</t>
+  </si>
+  <si>
+    <t>268 Shrub</t>
+  </si>
+  <si>
+    <t>271 Shrub</t>
+  </si>
+  <si>
+    <t>295 Shrub</t>
+  </si>
+  <si>
+    <t>264 Shrub</t>
+  </si>
+  <si>
+    <t>274 Open</t>
+  </si>
+  <si>
+    <t>275 Open</t>
+  </si>
+  <si>
+    <t>287 Shrub</t>
+  </si>
+  <si>
+    <t>195 Open</t>
+  </si>
+  <si>
+    <t>192 Shrub</t>
+  </si>
+  <si>
+    <t>265 Open</t>
+  </si>
+  <si>
+    <t>303 Open</t>
+  </si>
+  <si>
+    <t>Richardiidae</t>
+  </si>
+  <si>
+    <t>uploaded</t>
   </si>
 </sst>
 </file>
@@ -3162,7 +3229,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3176,6 +3243,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3459,9 +3527,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U1718"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A562" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J712" sqref="J712"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A703" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C585" sqref="A585:XFD585"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4703,7 +4771,7 @@
         <v>535</v>
       </c>
       <c r="S31" s="5" t="s">
-        <v>1006</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.25">
@@ -6236,7 +6304,7 @@
         <v>535</v>
       </c>
       <c r="S72" s="5" t="s">
-        <v>1007</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="73" spans="1:19" x14ac:dyDescent="0.25">
@@ -6966,13 +7034,13 @@
         <v>925</v>
       </c>
       <c r="K92" s="5" t="s">
-        <v>1008</v>
+        <v>1003</v>
       </c>
       <c r="L92" s="5" t="s">
         <v>926</v>
       </c>
       <c r="Q92" s="5" t="s">
-        <v>1008</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="93" spans="1:18" x14ac:dyDescent="0.25">
@@ -11596,7 +11664,7 @@
         <v>936</v>
       </c>
       <c r="N217" s="4" t="s">
-        <v>1009</v>
+        <v>1004</v>
       </c>
       <c r="Q217" s="4" t="s">
         <v>937</v>
@@ -14604,7 +14672,7 @@
         <v>518</v>
       </c>
       <c r="M299" t="s">
-        <v>1010</v>
+        <v>1005</v>
       </c>
       <c r="Q299" t="s">
         <v>518</v>
@@ -16688,10 +16756,10 @@
         <v>20</v>
       </c>
       <c r="K357" t="s">
-        <v>1011</v>
+        <v>1006</v>
       </c>
       <c r="Q357" t="s">
-        <v>1011</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="358" spans="1:17" x14ac:dyDescent="0.25">
@@ -18072,7 +18140,7 @@
         <v>915</v>
       </c>
       <c r="Q395" s="4" t="s">
-        <v>1012</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="396" spans="1:17" x14ac:dyDescent="0.25">
@@ -19105,10 +19173,10 @@
         <v>20</v>
       </c>
       <c r="K424" t="s">
-        <v>1013</v>
+        <v>1008</v>
       </c>
       <c r="Q424" t="s">
-        <v>1013</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="425" spans="1:17" x14ac:dyDescent="0.25">
@@ -20083,10 +20151,10 @@
         <v>27</v>
       </c>
       <c r="K451" t="s">
-        <v>1014</v>
+        <v>1009</v>
       </c>
       <c r="Q451" t="s">
-        <v>1015</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="452" spans="1:17" x14ac:dyDescent="0.25">
@@ -20538,10 +20606,10 @@
         <v>910</v>
       </c>
       <c r="L464" t="s">
-        <v>1016</v>
+        <v>1011</v>
       </c>
       <c r="Q464" t="s">
-        <v>1016</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="465" spans="1:17" x14ac:dyDescent="0.25">
@@ -21513,47 +21581,47 @@
         <v>614</v>
       </c>
     </row>
-    <row r="492" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A492" t="s">
+    <row r="492" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A492" s="5" t="s">
         <v>621</v>
       </c>
-      <c r="B492" s="4" t="s">
-        <v>851</v>
-      </c>
-      <c r="C492" s="4" t="s">
+      <c r="B492" s="5" t="s">
+        <v>851</v>
+      </c>
+      <c r="C492" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D492" s="4">
+      <c r="D492" s="5">
         <v>192</v>
       </c>
-      <c r="E492" s="4" t="s">
+      <c r="E492" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F492" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="G492" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H492" s="4">
-        <v>1</v>
-      </c>
-      <c r="I492" s="4" t="s">
+      <c r="F492" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G492" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H492" s="5">
+        <v>1</v>
+      </c>
+      <c r="I492" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="J492" s="4" t="s">
+      <c r="J492" s="5" t="s">
         <v>615</v>
       </c>
-      <c r="K492" s="4" t="s">
-        <v>953</v>
-      </c>
-      <c r="Q492" s="4" t="s">
-        <v>615</v>
-      </c>
-      <c r="S492" s="4" t="s">
+      <c r="K492" s="5" t="s">
+        <v>959</v>
+      </c>
+      <c r="Q492" s="5" t="s">
+        <v>959</v>
+      </c>
+      <c r="S492" s="5" t="s">
         <v>516</v>
       </c>
-      <c r="T492" s="4" t="s">
+      <c r="T492" s="5" t="s">
         <v>618</v>
       </c>
     </row>
@@ -22083,7 +22151,7 @@
     </row>
     <row r="509" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A509" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="B509" t="s">
         <v>851</v>
@@ -22150,7 +22218,7 @@
     </row>
     <row r="511" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A511" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="B511" t="s">
         <v>851</v>
@@ -22378,10 +22446,10 @@
         <v>615</v>
       </c>
       <c r="K517" t="s">
-        <v>955</v>
+        <v>959</v>
       </c>
       <c r="Q517" t="s">
-        <v>615</v>
+        <v>959</v>
       </c>
     </row>
     <row r="518" spans="2:20" x14ac:dyDescent="0.25">
@@ -24305,7 +24373,7 @@
         <v>615</v>
       </c>
       <c r="K576" s="5" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="Q576" s="5" t="s">
         <v>615</v>
@@ -24436,10 +24504,10 @@
         <v>113</v>
       </c>
       <c r="K580" t="s">
-        <v>649</v>
+        <v>609</v>
       </c>
       <c r="Q580" t="s">
-        <v>649</v>
+        <v>609</v>
       </c>
     </row>
     <row r="581" spans="2:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -24573,38 +24641,38 @@
         <v>944</v>
       </c>
     </row>
-    <row r="585" spans="2:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B585" s="4" t="s">
+    <row r="585" spans="2:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B585" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C585" s="4" t="s">
+      <c r="C585" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="D585" s="4">
+      <c r="D585" s="5">
         <v>266</v>
       </c>
-      <c r="E585" s="4" t="s">
+      <c r="E585" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F585" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="G585" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H585" s="4">
-        <v>1</v>
-      </c>
-      <c r="I585" s="4" t="s">
+      <c r="F585" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G585" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H585" s="5">
+        <v>1</v>
+      </c>
+      <c r="I585" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="K585" s="4" t="s">
+      <c r="K585" s="5" t="s">
         <v>952</v>
       </c>
-      <c r="L585" s="4" t="s">
+      <c r="L585" s="5" t="s">
         <v>951</v>
       </c>
-      <c r="Q585" s="4" t="s">
+      <c r="Q585" s="5" t="s">
         <v>952</v>
       </c>
     </row>
@@ -24928,10 +24996,10 @@
         <v>27</v>
       </c>
       <c r="K596" s="5" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="Q596" s="5" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
     </row>
     <row r="597" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -25259,13 +25327,13 @@
         <v>20</v>
       </c>
       <c r="K607" s="11" t="s">
-        <v>993</v>
+        <v>989</v>
       </c>
       <c r="L607" s="11" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="Q607" s="11" t="s">
-        <v>993</v>
+        <v>989</v>
       </c>
     </row>
     <row r="608" spans="1:17" x14ac:dyDescent="0.25">
@@ -25943,10 +26011,10 @@
         <v>20</v>
       </c>
       <c r="K631" t="s">
-        <v>993</v>
+        <v>989</v>
       </c>
       <c r="Q631" t="s">
-        <v>993</v>
+        <v>989</v>
       </c>
     </row>
     <row r="632" spans="1:17" x14ac:dyDescent="0.25">
@@ -28145,36 +28213,36 @@
         <v>685</v>
       </c>
     </row>
-    <row r="707" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A707" s="4" t="s">
+    <row r="707" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A707" s="5" t="s">
         <v>621</v>
       </c>
-      <c r="B707" s="4" t="s">
-        <v>851</v>
-      </c>
-      <c r="C707" s="4" t="s">
+      <c r="B707" s="5" t="s">
+        <v>851</v>
+      </c>
+      <c r="C707" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="D707" s="4">
+      <c r="D707" s="5">
         <v>289</v>
       </c>
-      <c r="F707" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G707" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H707" s="4">
-        <v>1</v>
-      </c>
-      <c r="I707" s="4" t="s">
+      <c r="F707" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G707" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H707" s="5">
+        <v>1</v>
+      </c>
+      <c r="I707" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="K707" s="4" t="s">
-        <v>529</v>
-      </c>
-      <c r="Q707" s="4" t="s">
-        <v>20</v>
+      <c r="K707" s="5" t="s">
+        <v>1012</v>
+      </c>
+      <c r="Q707" s="5" t="s">
+        <v>1012</v>
       </c>
     </row>
     <row r="708" spans="1:17" x14ac:dyDescent="0.25">
@@ -28675,8 +28743,11 @@
       <c r="I724" t="s">
         <v>20</v>
       </c>
+      <c r="K724" t="s">
+        <v>1012</v>
+      </c>
       <c r="Q724" t="s">
-        <v>20</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="725" spans="1:17" x14ac:dyDescent="0.25">
@@ -28995,10 +29066,10 @@
         <v>20</v>
       </c>
       <c r="K735" s="4" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="Q735" s="4" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
     </row>
     <row r="736" spans="1:17" x14ac:dyDescent="0.25">
@@ -29685,10 +29756,10 @@
         <v>20</v>
       </c>
       <c r="K759" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="Q759" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
     </row>
     <row r="760" spans="1:17" x14ac:dyDescent="0.25">
@@ -29888,13 +29959,13 @@
         <v>27</v>
       </c>
       <c r="J766" s="5" t="s">
-        <v>1003</v>
+        <v>999</v>
       </c>
       <c r="L766" s="5" t="s">
-        <v>1004</v>
+        <v>1000</v>
       </c>
       <c r="Q766" s="5" t="s">
-        <v>1003</v>
+        <v>999</v>
       </c>
     </row>
     <row r="767" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -30126,47 +30197,47 @@
         <v>644</v>
       </c>
     </row>
-    <row r="775" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A775" s="4" t="s">
+    <row r="775" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A775" s="5" t="s">
         <v>621</v>
       </c>
-      <c r="B775" s="4" t="s">
-        <v>851</v>
-      </c>
-      <c r="C775" s="4" t="s">
+      <c r="B775" s="5" t="s">
+        <v>851</v>
+      </c>
+      <c r="C775" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="D775" s="4">
+      <c r="D775" s="5">
         <v>190</v>
       </c>
-      <c r="F775" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="G775" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H775" s="4">
+      <c r="F775" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G775" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H775" s="5">
         <v>2</v>
       </c>
-      <c r="I775" s="4" t="s">
+      <c r="I775" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="J775" s="4" t="s">
+      <c r="J775" s="5" t="s">
         <v>615</v>
       </c>
-      <c r="K775" s="4" t="s">
-        <v>1005</v>
-      </c>
-      <c r="Q775" s="4" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="776" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="K776" s="4" t="s">
-        <v>966</v>
-      </c>
-      <c r="Q776" s="4" t="s">
-        <v>966</v>
+      <c r="K775" s="5" t="s">
+        <v>959</v>
+      </c>
+      <c r="Q775" s="5" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="776" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K776" s="5" t="s">
+        <v>964</v>
+      </c>
+      <c r="Q776" s="5" t="s">
+        <v>964</v>
       </c>
     </row>
     <row r="777" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -30195,10 +30266,10 @@
         <v>20</v>
       </c>
       <c r="K777" s="4" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="Q777" s="4" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
     </row>
     <row r="778" spans="1:17" x14ac:dyDescent="0.25">
@@ -31190,10 +31261,10 @@
         <v>615</v>
       </c>
       <c r="K811" s="5" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="Q811" s="5" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
     </row>
     <row r="812" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -32445,7 +32516,7 @@
     </row>
     <row r="855" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A855" s="4" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="B855" s="4" t="s">
         <v>851</v>
@@ -32617,7 +32688,7 @@
         <v>713</v>
       </c>
       <c r="L860" s="4" t="s">
-        <v>1001</v>
+        <v>997</v>
       </c>
       <c r="Q860" s="4" t="s">
         <v>713</v>
@@ -32852,13 +32923,13 @@
         <v>703</v>
       </c>
       <c r="K868" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="Q868" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="S868" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
     </row>
     <row r="869" spans="1:19" x14ac:dyDescent="0.25">
@@ -32887,13 +32958,13 @@
         <v>673</v>
       </c>
       <c r="K869" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="L869" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="Q869" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
     </row>
     <row r="870" spans="1:19" x14ac:dyDescent="0.25">
@@ -33160,7 +33231,7 @@
         <v>20</v>
       </c>
       <c r="J878" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="K878" t="s">
         <v>349</v>
@@ -33984,7 +34055,7 @@
         <v>840</v>
       </c>
       <c r="Q906" s="4" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
     </row>
     <row r="907" spans="1:17" x14ac:dyDescent="0.25">
@@ -34184,13 +34255,13 @@
         <v>538</v>
       </c>
       <c r="L913" s="5" t="s">
-        <v>975</v>
+        <v>971</v>
       </c>
       <c r="Q913" s="5" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="914" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="914" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B914" s="5" t="s">
         <v>851</v>
       </c>
@@ -34200,27 +34271,26 @@
       <c r="D914" s="5">
         <v>146</v>
       </c>
-      <c r="E914" s="5"/>
       <c r="F914" s="5" t="s">
         <v>18</v>
       </c>
       <c r="G914" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="H914" s="4">
-        <v>1</v>
-      </c>
-      <c r="I914" s="4" t="s">
+      <c r="H914" s="5">
+        <v>1</v>
+      </c>
+      <c r="I914" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="J914" s="4" t="s">
+      <c r="J914" s="5" t="s">
         <v>615</v>
       </c>
-      <c r="K914" s="4" t="s">
-        <v>969</v>
-      </c>
-      <c r="Q914" s="4" t="s">
-        <v>969</v>
+      <c r="K914" s="5" t="s">
+        <v>959</v>
+      </c>
+      <c r="Q914" s="5" t="s">
+        <v>959</v>
       </c>
     </row>
     <row r="915" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -34249,7 +34319,7 @@
         <v>642</v>
       </c>
       <c r="L915" s="5" t="s">
-        <v>982</v>
+        <v>978</v>
       </c>
       <c r="Q915" s="5" t="s">
         <v>642</v>
@@ -34461,7 +34531,7 @@
         <v>642</v>
       </c>
       <c r="L922" s="5" t="s">
-        <v>982</v>
+        <v>978</v>
       </c>
       <c r="Q922" s="5" t="s">
         <v>703</v>
@@ -35192,10 +35262,10 @@
         <v>113</v>
       </c>
       <c r="K947" t="s">
-        <v>970</v>
+        <v>967</v>
       </c>
       <c r="Q947" t="s">
-        <v>970</v>
+        <v>967</v>
       </c>
     </row>
     <row r="948" spans="2:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -35224,7 +35294,7 @@
         <v>538</v>
       </c>
       <c r="L948" s="5" t="s">
-        <v>975</v>
+        <v>971</v>
       </c>
       <c r="Q948" s="5" t="s">
         <v>538</v>
@@ -35871,10 +35941,10 @@
         <v>703</v>
       </c>
       <c r="K970" s="5" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="Q970" s="5" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
     </row>
     <row r="971" spans="1:17" x14ac:dyDescent="0.25">
@@ -36396,16 +36466,16 @@
         <v>27</v>
       </c>
       <c r="K988" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="L988" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="Q988" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="S988" t="s">
-        <v>971</v>
+        <v>968</v>
       </c>
     </row>
     <row r="989" spans="1:19" x14ac:dyDescent="0.25">
@@ -36921,7 +36991,7 @@
         <v>938</v>
       </c>
       <c r="L1006" t="s">
-        <v>973</v>
+        <v>969</v>
       </c>
       <c r="Q1006" t="s">
         <v>938</v>
@@ -37240,10 +37310,10 @@
         <v>703</v>
       </c>
       <c r="K1017" t="s">
-        <v>969</v>
+        <v>959</v>
       </c>
       <c r="Q1017" t="s">
-        <v>969</v>
+        <v>959</v>
       </c>
     </row>
     <row r="1018" spans="2:17" x14ac:dyDescent="0.25">
@@ -37269,10 +37339,10 @@
         <v>27</v>
       </c>
       <c r="K1018" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="L1018" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
     </row>
     <row r="1019" spans="2:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -37614,39 +37684,39 @@
         <v>940</v>
       </c>
       <c r="Q1030" t="s">
-        <v>966</v>
-      </c>
-    </row>
-    <row r="1031" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B1031" s="4" t="s">
-        <v>851</v>
-      </c>
-      <c r="C1031" s="4" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="1031" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B1031" s="5" t="s">
+        <v>851</v>
+      </c>
+      <c r="C1031" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="D1031" s="4">
+      <c r="D1031" s="5">
         <v>280</v>
       </c>
-      <c r="F1031" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="G1031" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H1031" s="4">
-        <v>1</v>
-      </c>
-      <c r="I1031" s="4" t="s">
+      <c r="F1031" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1031" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1031" s="5">
+        <v>1</v>
+      </c>
+      <c r="I1031" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="J1031" s="4" t="s">
+      <c r="J1031" s="5" t="s">
         <v>703</v>
       </c>
-      <c r="K1031" s="4" t="s">
-        <v>969</v>
-      </c>
-      <c r="Q1031" s="4" t="s">
-        <v>969</v>
+      <c r="K1031" s="5" t="s">
+        <v>959</v>
+      </c>
+      <c r="Q1031" s="5" t="s">
+        <v>959</v>
       </c>
     </row>
     <row r="1032" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -37861,10 +37931,10 @@
         <v>703</v>
       </c>
       <c r="K1038" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="Q1038" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
     </row>
     <row r="1039" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -38160,15 +38230,15 @@
         <v>703</v>
       </c>
       <c r="K1048" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="Q1048" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
     </row>
     <row r="1049" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1049" s="5" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
       <c r="B1049" s="5" t="s">
         <v>851</v>
@@ -38401,36 +38471,36 @@
         <v>568</v>
       </c>
     </row>
-    <row r="1057" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B1057" t="s">
-        <v>851</v>
-      </c>
-      <c r="C1057" t="s">
+    <row r="1057" spans="2:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B1057" s="5" t="s">
+        <v>851</v>
+      </c>
+      <c r="C1057" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="D1057">
+      <c r="D1057" s="5">
         <v>270</v>
       </c>
-      <c r="F1057" t="s">
-        <v>26</v>
-      </c>
-      <c r="G1057" t="s">
-        <v>19</v>
-      </c>
-      <c r="H1057">
+      <c r="F1057" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1057" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1057" s="5">
         <v>2</v>
       </c>
-      <c r="I1057" t="s">
+      <c r="I1057" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="J1057" t="s">
+      <c r="J1057" s="5" t="s">
         <v>703</v>
       </c>
-      <c r="K1057" t="s">
-        <v>972</v>
-      </c>
-      <c r="Q1057" t="s">
-        <v>703</v>
+      <c r="K1057" s="5" t="s">
+        <v>940</v>
+      </c>
+      <c r="Q1057" s="5" t="s">
+        <v>940</v>
       </c>
     </row>
     <row r="1058" spans="2:17" x14ac:dyDescent="0.25">
@@ -38668,7 +38738,7 @@
         <v>538</v>
       </c>
       <c r="L1065" t="s">
-        <v>975</v>
+        <v>971</v>
       </c>
       <c r="Q1065" t="s">
         <v>538</v>
@@ -38697,10 +38767,10 @@
         <v>27</v>
       </c>
       <c r="K1066" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="Q1066" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
     </row>
     <row r="1067" spans="2:17" x14ac:dyDescent="0.25">
@@ -38941,10 +39011,10 @@
         <v>703</v>
       </c>
       <c r="K1074" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="Q1074" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
     </row>
     <row r="1075" spans="2:17" x14ac:dyDescent="0.25">
@@ -39460,10 +39530,10 @@
         <v>703</v>
       </c>
       <c r="K1092" t="s">
-        <v>969</v>
+        <v>959</v>
       </c>
       <c r="Q1092" t="s">
-        <v>969</v>
+        <v>959</v>
       </c>
     </row>
     <row r="1093" spans="2:17" x14ac:dyDescent="0.25">
@@ -39608,7 +39678,7 @@
         <v>830</v>
       </c>
       <c r="L1097" t="s">
-        <v>976</v>
+        <v>972</v>
       </c>
       <c r="Q1097" t="s">
         <v>830</v>
@@ -39637,10 +39707,10 @@
         <v>27</v>
       </c>
       <c r="K1098" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="Q1098" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
     </row>
     <row r="1099" spans="2:17" x14ac:dyDescent="0.25">
@@ -39666,10 +39736,10 @@
         <v>27</v>
       </c>
       <c r="K1099" t="s">
-        <v>969</v>
+        <v>959</v>
       </c>
       <c r="Q1099" t="s">
-        <v>969</v>
+        <v>959</v>
       </c>
     </row>
     <row r="1100" spans="2:17" x14ac:dyDescent="0.25">
@@ -40417,10 +40487,10 @@
         <v>27</v>
       </c>
       <c r="K1125" s="4" t="s">
-        <v>977</v>
+        <v>973</v>
       </c>
       <c r="Q1125" s="4" t="s">
-        <v>977</v>
+        <v>973</v>
       </c>
     </row>
     <row r="1126" spans="1:17" x14ac:dyDescent="0.25">
@@ -40713,10 +40783,10 @@
         <v>27</v>
       </c>
       <c r="K1135" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="Q1135" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
     </row>
     <row r="1136" spans="1:17" x14ac:dyDescent="0.25">
@@ -40771,10 +40841,10 @@
         <v>27</v>
       </c>
       <c r="K1137" t="s">
-        <v>978</v>
+        <v>974</v>
       </c>
       <c r="Q1137" t="s">
-        <v>978</v>
+        <v>974</v>
       </c>
     </row>
     <row r="1138" spans="2:17" x14ac:dyDescent="0.25">
@@ -41229,7 +41299,7 @@
         <v>769</v>
       </c>
       <c r="L1153" s="4" t="s">
-        <v>1000</v>
+        <v>996</v>
       </c>
       <c r="Q1153" s="4" t="s">
         <v>20</v>
@@ -41899,7 +41969,7 @@
         <v>20</v>
       </c>
       <c r="K1176" s="4" t="s">
-        <v>1002</v>
+        <v>998</v>
       </c>
       <c r="Q1176" s="4" t="s">
         <v>20</v>
@@ -42542,13 +42612,13 @@
         <v>703</v>
       </c>
       <c r="K1200" s="8" t="s">
-        <v>979</v>
+        <v>975</v>
       </c>
       <c r="L1200" s="8" t="s">
         <v>831</v>
       </c>
       <c r="Q1200" s="8" t="s">
-        <v>979</v>
+        <v>975</v>
       </c>
     </row>
     <row r="1201" spans="2:17" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -42577,10 +42647,10 @@
         <v>703</v>
       </c>
       <c r="K1201" s="8" t="s">
-        <v>980</v>
+        <v>976</v>
       </c>
       <c r="Q1201" s="8" t="s">
-        <v>980</v>
+        <v>976</v>
       </c>
     </row>
     <row r="1202" spans="2:17" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -42812,7 +42882,7 @@
         <v>538</v>
       </c>
       <c r="L1209" s="5" t="s">
-        <v>975</v>
+        <v>971</v>
       </c>
       <c r="Q1209" s="5" t="s">
         <v>538</v>
@@ -42957,7 +43027,7 @@
         <v>538</v>
       </c>
       <c r="L1214" t="s">
-        <v>975</v>
+        <v>971</v>
       </c>
       <c r="Q1214" t="s">
         <v>538</v>
@@ -43015,13 +43085,13 @@
         <v>27</v>
       </c>
       <c r="K1216" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="L1216" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="Q1216" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
     </row>
     <row r="1217" spans="1:17" x14ac:dyDescent="0.25">
@@ -43323,7 +43393,7 @@
         <v>538</v>
       </c>
       <c r="L1226" t="s">
-        <v>975</v>
+        <v>971</v>
       </c>
       <c r="Q1226" t="s">
         <v>538</v>
@@ -43651,7 +43721,7 @@
         <v>538</v>
       </c>
       <c r="L1237" t="s">
-        <v>975</v>
+        <v>971</v>
       </c>
       <c r="Q1237" t="s">
         <v>538</v>
@@ -44144,7 +44214,7 @@
         <v>607</v>
       </c>
       <c r="Q1254" t="s">
-        <v>981</v>
+        <v>977</v>
       </c>
     </row>
     <row r="1255" spans="2:17" x14ac:dyDescent="0.25">
@@ -44289,7 +44359,7 @@
         <v>642</v>
       </c>
       <c r="L1259" s="9" t="s">
-        <v>982</v>
+        <v>978</v>
       </c>
       <c r="Q1259" s="9" t="s">
         <v>642</v>
@@ -45417,10 +45487,10 @@
         <v>703</v>
       </c>
       <c r="K1297" t="s">
-        <v>983</v>
+        <v>979</v>
       </c>
       <c r="Q1297" t="s">
-        <v>983</v>
+        <v>979</v>
       </c>
     </row>
     <row r="1298" spans="2:17" x14ac:dyDescent="0.25">
@@ -46275,13 +46345,13 @@
         <v>703</v>
       </c>
       <c r="K1327" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="L1327" t="s">
-        <v>984</v>
+        <v>980</v>
       </c>
       <c r="Q1327" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
     </row>
     <row r="1328" spans="2:17" x14ac:dyDescent="0.25">
@@ -46649,10 +46719,10 @@
         <v>27</v>
       </c>
       <c r="K1340" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="Q1340" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
     </row>
     <row r="1341" spans="2:17" x14ac:dyDescent="0.25">
@@ -46681,7 +46751,7 @@
         <v>826</v>
       </c>
       <c r="N1341" t="s">
-        <v>985</v>
+        <v>981</v>
       </c>
       <c r="Q1341" t="s">
         <v>826</v>
@@ -46887,10 +46957,10 @@
         <v>703</v>
       </c>
       <c r="K1348" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="Q1348" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
     </row>
     <row r="1349" spans="2:17" x14ac:dyDescent="0.25">
@@ -47151,7 +47221,7 @@
         <v>529</v>
       </c>
       <c r="L1357" s="4" t="s">
-        <v>999</v>
+        <v>995</v>
       </c>
       <c r="Q1357" s="4" t="s">
         <v>20</v>
@@ -47212,7 +47282,7 @@
         <v>642</v>
       </c>
       <c r="L1359" t="s">
-        <v>982</v>
+        <v>978</v>
       </c>
       <c r="Q1359" t="s">
         <v>642</v>
@@ -47392,7 +47462,7 @@
         <v>538</v>
       </c>
       <c r="L1365" t="s">
-        <v>975</v>
+        <v>971</v>
       </c>
       <c r="Q1365" t="s">
         <v>538</v>
@@ -47514,7 +47584,7 @@
         <v>642</v>
       </c>
       <c r="L1369" t="s">
-        <v>982</v>
+        <v>978</v>
       </c>
       <c r="Q1369" t="s">
         <v>642</v>
@@ -47543,13 +47613,13 @@
         <v>27</v>
       </c>
       <c r="K1370" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="L1370" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="Q1370" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
     </row>
     <row r="1371" spans="1:17" x14ac:dyDescent="0.25">
@@ -47700,7 +47770,7 @@
         <v>20</v>
       </c>
       <c r="K1375" s="4" t="s">
-        <v>986</v>
+        <v>982</v>
       </c>
       <c r="L1375" s="4" t="s">
         <v>792</v>
@@ -48927,13 +48997,13 @@
         <v>27</v>
       </c>
       <c r="K1417" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="L1417" t="s">
-        <v>987</v>
+        <v>983</v>
       </c>
       <c r="Q1417" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
     </row>
     <row r="1418" spans="1:17" x14ac:dyDescent="0.25">
@@ -49394,7 +49464,7 @@
         <v>538</v>
       </c>
       <c r="L1433" t="s">
-        <v>975</v>
+        <v>971</v>
       </c>
       <c r="Q1433" t="s">
         <v>538</v>
@@ -50180,7 +50250,7 @@
         <v>952</v>
       </c>
       <c r="S1460" t="s">
-        <v>988</v>
+        <v>984</v>
       </c>
     </row>
     <row r="1461" spans="2:19" x14ac:dyDescent="0.25">
@@ -50592,33 +50662,33 @@
         <v>607</v>
       </c>
     </row>
-    <row r="1475" spans="1:17" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B1475" s="12" t="s">
-        <v>851</v>
-      </c>
-      <c r="C1475" s="12" t="s">
+    <row r="1475" spans="1:17" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B1475" s="13" t="s">
+        <v>851</v>
+      </c>
+      <c r="C1475" s="13" t="s">
         <v>337</v>
       </c>
-      <c r="D1475" s="12">
+      <c r="D1475" s="13">
         <v>265</v>
       </c>
-      <c r="F1475" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="G1475" s="12" t="s">
-        <v>231</v>
-      </c>
-      <c r="H1475" s="12">
-        <v>1</v>
-      </c>
-      <c r="I1475" s="12" t="s">
+      <c r="F1475" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1475" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="H1475" s="13">
+        <v>1</v>
+      </c>
+      <c r="I1475" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="K1475" s="12" t="s">
-        <v>215</v>
-      </c>
-      <c r="Q1475" s="12" t="s">
-        <v>215</v>
+      <c r="K1475" s="13" t="s">
+        <v>540</v>
+      </c>
+      <c r="Q1475" s="13" t="s">
+        <v>540</v>
       </c>
     </row>
     <row r="1476" spans="1:17" x14ac:dyDescent="0.25">
@@ -51036,10 +51106,10 @@
         <v>615</v>
       </c>
       <c r="K1489" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="Q1489" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
     </row>
     <row r="1490" spans="2:17" x14ac:dyDescent="0.25">
@@ -51071,7 +51141,7 @@
         <v>642</v>
       </c>
       <c r="L1490" t="s">
-        <v>982</v>
+        <v>978</v>
       </c>
       <c r="Q1490" s="8" t="s">
         <v>642</v>
@@ -51103,13 +51173,13 @@
         <v>615</v>
       </c>
       <c r="K1491" s="8" t="s">
-        <v>991</v>
+        <v>987</v>
       </c>
       <c r="L1491" t="s">
-        <v>990</v>
+        <v>986</v>
       </c>
       <c r="Q1491" s="8" t="s">
-        <v>991</v>
+        <v>987</v>
       </c>
     </row>
     <row r="1492" spans="2:17" x14ac:dyDescent="0.25">
@@ -51280,7 +51350,7 @@
         <v>538</v>
       </c>
       <c r="L1497" t="s">
-        <v>975</v>
+        <v>971</v>
       </c>
       <c r="Q1497" t="s">
         <v>538</v>
@@ -51309,7 +51379,7 @@
         <v>63</v>
       </c>
       <c r="K1498" t="s">
-        <v>989</v>
+        <v>985</v>
       </c>
       <c r="Q1498" t="s">
         <v>63</v>
@@ -52031,7 +52101,7 @@
         <v>642</v>
       </c>
       <c r="L1523" t="s">
-        <v>982</v>
+        <v>978</v>
       </c>
       <c r="Q1523" s="8" t="s">
         <v>642</v>
@@ -52527,10 +52597,10 @@
         <v>113</v>
       </c>
       <c r="K1540" t="s">
-        <v>992</v>
+        <v>988</v>
       </c>
       <c r="Q1540" t="s">
-        <v>992</v>
+        <v>988</v>
       </c>
     </row>
     <row r="1541" spans="2:17" x14ac:dyDescent="0.25">
@@ -52785,10 +52855,10 @@
         <v>113</v>
       </c>
       <c r="K1549" t="s">
-        <v>992</v>
+        <v>988</v>
       </c>
       <c r="Q1549" t="s">
-        <v>992</v>
+        <v>988</v>
       </c>
     </row>
     <row r="1550" spans="2:17" x14ac:dyDescent="0.25">
@@ -52962,7 +53032,7 @@
         <v>538</v>
       </c>
       <c r="L1555" t="s">
-        <v>975</v>
+        <v>971</v>
       </c>
       <c r="Q1555" t="s">
         <v>538</v>
@@ -53078,10 +53148,10 @@
         <v>113</v>
       </c>
       <c r="K1559" t="s">
-        <v>992</v>
+        <v>988</v>
       </c>
       <c r="Q1559" t="s">
-        <v>992</v>
+        <v>988</v>
       </c>
     </row>
     <row r="1560" spans="2:17" x14ac:dyDescent="0.25">
@@ -53174,7 +53244,7 @@
         <v>538</v>
       </c>
       <c r="L1562" t="s">
-        <v>975</v>
+        <v>971</v>
       </c>
       <c r="Q1562" t="s">
         <v>538</v>
@@ -53319,13 +53389,13 @@
         <v>20</v>
       </c>
       <c r="K1567" t="s">
-        <v>993</v>
+        <v>989</v>
       </c>
       <c r="L1567" t="s">
-        <v>994</v>
+        <v>990</v>
       </c>
       <c r="Q1567" t="s">
-        <v>993</v>
+        <v>989</v>
       </c>
     </row>
     <row r="1568" spans="2:17" x14ac:dyDescent="0.25">
@@ -53534,7 +53604,7 @@
         <v>538</v>
       </c>
       <c r="L1574" t="s">
-        <v>975</v>
+        <v>971</v>
       </c>
       <c r="Q1574" t="s">
         <v>538</v>
@@ -53595,7 +53665,7 @@
         <v>538</v>
       </c>
       <c r="L1576" t="s">
-        <v>975</v>
+        <v>971</v>
       </c>
       <c r="Q1576" t="s">
         <v>538</v>
@@ -53772,10 +53842,10 @@
         <v>20</v>
       </c>
       <c r="K1582" t="s">
-        <v>993</v>
+        <v>989</v>
       </c>
       <c r="Q1582" t="s">
-        <v>993</v>
+        <v>989</v>
       </c>
     </row>
     <row r="1583" spans="2:17" x14ac:dyDescent="0.25">
@@ -53859,7 +53929,7 @@
         <v>113</v>
       </c>
       <c r="K1585" t="s">
-        <v>992</v>
+        <v>988</v>
       </c>
       <c r="Q1585" t="s">
         <v>815</v>
@@ -53978,13 +54048,13 @@
         <v>20</v>
       </c>
       <c r="K1589" t="s">
-        <v>993</v>
+        <v>989</v>
       </c>
       <c r="L1589" t="s">
         <v>834</v>
       </c>
       <c r="Q1589" t="s">
-        <v>993</v>
+        <v>989</v>
       </c>
     </row>
     <row r="1590" spans="2:17" x14ac:dyDescent="0.25">
@@ -54129,7 +54199,7 @@
         <v>538</v>
       </c>
       <c r="L1594" t="s">
-        <v>975</v>
+        <v>971</v>
       </c>
       <c r="Q1594" t="s">
         <v>538</v>
@@ -54187,10 +54257,10 @@
         <v>20</v>
       </c>
       <c r="K1596" t="s">
-        <v>993</v>
+        <v>989</v>
       </c>
       <c r="Q1596" t="s">
-        <v>993</v>
+        <v>989</v>
       </c>
     </row>
     <row r="1597" spans="2:17" x14ac:dyDescent="0.25">
@@ -54364,7 +54434,7 @@
         <v>538</v>
       </c>
       <c r="L1602" t="s">
-        <v>975</v>
+        <v>971</v>
       </c>
       <c r="Q1602" t="s">
         <v>538</v>
@@ -54393,13 +54463,13 @@
         <v>20</v>
       </c>
       <c r="K1603" t="s">
-        <v>993</v>
+        <v>989</v>
       </c>
       <c r="L1603" t="s">
         <v>834</v>
       </c>
       <c r="Q1603" t="s">
-        <v>993</v>
+        <v>989</v>
       </c>
     </row>
     <row r="1604" spans="2:17" x14ac:dyDescent="0.25">
@@ -54605,7 +54675,7 @@
         <v>538</v>
       </c>
       <c r="L1610" t="s">
-        <v>975</v>
+        <v>971</v>
       </c>
       <c r="Q1610" t="s">
         <v>538</v>
@@ -54637,10 +54707,10 @@
         <v>615</v>
       </c>
       <c r="K1611" t="s">
-        <v>991</v>
+        <v>987</v>
       </c>
       <c r="Q1611" t="s">
-        <v>991</v>
+        <v>987</v>
       </c>
     </row>
     <row r="1612" spans="2:17" x14ac:dyDescent="0.25">
@@ -54695,10 +54765,10 @@
         <v>538</v>
       </c>
       <c r="L1613" t="s">
-        <v>975</v>
+        <v>971</v>
       </c>
       <c r="N1613" t="s">
-        <v>995</v>
+        <v>991</v>
       </c>
       <c r="Q1613" t="s">
         <v>538</v>
@@ -54817,7 +54887,7 @@
         <v>538</v>
       </c>
       <c r="L1617" t="s">
-        <v>975</v>
+        <v>971</v>
       </c>
       <c r="Q1617" t="s">
         <v>538</v>
@@ -55052,7 +55122,7 @@
         <v>538</v>
       </c>
       <c r="L1625" t="s">
-        <v>975</v>
+        <v>971</v>
       </c>
       <c r="Q1625" t="s">
         <v>538</v>
@@ -55142,7 +55212,7 @@
         <v>538</v>
       </c>
       <c r="L1628" t="s">
-        <v>975</v>
+        <v>971</v>
       </c>
       <c r="Q1628" t="s">
         <v>538</v>
@@ -55435,13 +55505,13 @@
         <v>615</v>
       </c>
       <c r="K1638" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="L1638" t="s">
-        <v>996</v>
+        <v>992</v>
       </c>
       <c r="Q1638" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
     </row>
     <row r="1639" spans="2:17" x14ac:dyDescent="0.25">
@@ -56053,7 +56123,7 @@
         <v>538</v>
       </c>
       <c r="L1659" t="s">
-        <v>975</v>
+        <v>971</v>
       </c>
       <c r="Q1659" t="s">
         <v>538</v>
@@ -56204,10 +56274,10 @@
         <v>615</v>
       </c>
       <c r="K1664" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="Q1664" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
     </row>
     <row r="1665" spans="2:17" x14ac:dyDescent="0.25">
@@ -56854,7 +56924,7 @@
         <v>538</v>
       </c>
       <c r="L1686" t="s">
-        <v>975</v>
+        <v>971</v>
       </c>
       <c r="Q1686" t="s">
         <v>538</v>
@@ -57338,10 +57408,10 @@
         <v>615</v>
       </c>
       <c r="K1703" t="s">
-        <v>997</v>
+        <v>993</v>
       </c>
       <c r="Q1703" t="s">
-        <v>997</v>
+        <v>993</v>
       </c>
     </row>
     <row r="1704" spans="2:17" x14ac:dyDescent="0.25">
@@ -57399,7 +57469,7 @@
         <v>642</v>
       </c>
       <c r="L1705" t="s">
-        <v>982</v>
+        <v>978</v>
       </c>
       <c r="Q1705" t="s">
         <v>642</v>
@@ -57454,10 +57524,10 @@
         <v>1</v>
       </c>
       <c r="I1707" t="s">
-        <v>998</v>
+        <v>994</v>
       </c>
       <c r="Q1707" t="s">
-        <v>998</v>
+        <v>994</v>
       </c>
     </row>
     <row r="1708" spans="2:17" x14ac:dyDescent="0.25">
@@ -57637,10 +57707,10 @@
         <v>615</v>
       </c>
       <c r="K1713" t="s">
-        <v>997</v>
+        <v>993</v>
       </c>
       <c r="Q1713" t="s">
-        <v>997</v>
+        <v>993</v>
       </c>
     </row>
     <row r="1714" spans="2:17" x14ac:dyDescent="0.25">
@@ -57803,6 +57873,277 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1013</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>4.22</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1014</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="6">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>4.1100000000000003</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>1017</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4.12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1018</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4.12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>4.12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1019</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>4.12</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1019</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>4.12</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1020</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>4.13</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>4.13</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1022</v>
+      </c>
+      <c r="C11" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>4.13</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>4.16</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>4.16</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>4.16</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>4.16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>4.17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>4.1900000000000004</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>4.2</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1030</v>
+      </c>
+      <c r="C20" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>4.2</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>4.2</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>4.2300000000000004</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>4.26</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>4.26</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1034</v>
+      </c>
+      <c r="C25" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="6">
+        <v>4.3</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>1035</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>5.5</v>
+      </c>
+      <c r="B27" t="s">
+        <v>1036</v>
+      </c>
+      <c r="C27" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -58198,7 +58539,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T1167"/>
   <sheetViews>
@@ -88830,7 +89171,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R12"/>
   <sheetViews>
